--- a/inputs.xlsx
+++ b/inputs.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\自然通风组\00 On-The-Go\人力资源部\10 考核\40 考核测算\wagePackage\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12468"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="1" r:id="rId1"/>
@@ -18,12 +13,12 @@
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="93">
   <si>
     <t>var_name</t>
   </si>
@@ -184,6 +179,15 @@
     <t>financial_index_name</t>
   </si>
   <si>
+    <t>fazhan</t>
+  </si>
+  <si>
+    <t>Compete</t>
+  </si>
+  <si>
+    <t>京投发展</t>
+  </si>
+  <si>
     <t>人均利润</t>
   </si>
   <si>
@@ -199,41 +203,113 @@
     <t>calculated</t>
   </si>
   <si>
+    <t>keji</t>
+  </si>
+  <si>
+    <t>京投科技</t>
+  </si>
+  <si>
+    <t>zulin</t>
+  </si>
+  <si>
+    <t>基石租赁</t>
+  </si>
+  <si>
+    <t>zhuangbei</t>
+  </si>
+  <si>
+    <t>装备集团</t>
+  </si>
+  <si>
+    <t>zixun</t>
+  </si>
+  <si>
+    <t>轨道咨询</t>
+  </si>
+  <si>
+    <t>yunying</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>轨道运营</t>
+  </si>
+  <si>
+    <t>guidao</t>
+  </si>
+  <si>
     <t>Special</t>
   </si>
   <si>
     <t>Gov</t>
   </si>
   <si>
-    <r>
-      <t>j</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ingtou</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊功能板块</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>轨道公司</t>
+  </si>
+  <si>
+    <t>jiaotong</t>
+  </si>
+  <si>
+    <t>交通公司</t>
+  </si>
+  <si>
+    <t>guanlang</t>
+  </si>
+  <si>
+    <t>管廊公司</t>
+  </si>
+  <si>
+    <t>luwang</t>
+  </si>
+  <si>
+    <t>路网公司</t>
+  </si>
+  <si>
+    <t>zichan</t>
+  </si>
+  <si>
+    <t>资产公司</t>
+  </si>
+  <si>
+    <t>benbu</t>
+  </si>
+  <si>
+    <t>Market</t>
+  </si>
+  <si>
+    <t>本部（除多经、土地）</t>
+  </si>
+  <si>
+    <t>tudi</t>
+  </si>
+  <si>
+    <t>土地事业部</t>
+  </si>
+  <si>
+    <t>duojing</t>
+  </si>
+  <si>
+    <t>多经事业部</t>
+  </si>
+  <si>
+    <t>beixin</t>
+  </si>
+  <si>
+    <t>北信公司</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,27 +322,162 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,12 +492,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor theme="6" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor theme="6" tint="0.799951170384838"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -323,6 +726,34 @@
       <right style="thin">
         <color theme="0"/>
       </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
       <top style="thin">
         <color theme="0"/>
       </top>
@@ -347,12 +778,49 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color theme="0"/>
       </left>
       <right/>
       <top/>
       <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
         <color theme="0"/>
       </bottom>
       <diagonal/>
@@ -370,16 +838,266 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -392,42 +1110,124 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -441,9 +1241,74 @@
             <v>21865</v>
           </cell>
         </row>
+        <row r="3">
+          <cell r="D3">
+            <v>21230</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>3944</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>36819</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>2823</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>40119</v>
+          </cell>
+        </row>
         <row r="8">
           <cell r="D8">
             <v>16706</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>1741</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10">
+            <v>2007</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="D11">
+            <v>6639</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="D12">
+            <v>1728</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="D13">
+            <v>13086.2250520833</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="D14">
+            <v>11680.229375</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="D15">
+            <v>4719.54557291667</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="D16">
+            <v>3069</v>
           </cell>
         </row>
       </sheetData>
@@ -455,7 +1320,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet2"/>
@@ -466,13 +1331,120 @@
           <cell r="K2">
             <v>589.5</v>
           </cell>
+          <cell r="L2">
+            <v>595.395</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="K3">
+            <v>820.5</v>
+          </cell>
+          <cell r="L3">
+            <v>828.705</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="K4">
+            <v>77.46</v>
+          </cell>
+          <cell r="L4">
+            <v>78.2346</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>2510.42</v>
+          </cell>
+          <cell r="L5">
+            <v>2535.5242</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>92.5</v>
+          </cell>
+          <cell r="L6">
+            <v>93.425</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="K7">
+            <v>2204</v>
+          </cell>
+          <cell r="L7">
+            <v>2204</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="K8">
             <v>581.5</v>
           </cell>
           <cell r="L8">
-            <v>598.94500000000005</v>
+            <v>581.5</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="K9">
+            <v>289.54</v>
+          </cell>
+          <cell r="L9">
+            <v>289.54</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="K10">
+            <v>51.67</v>
+          </cell>
+          <cell r="L10">
+            <v>51.67</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="K11">
+            <v>196.96</v>
+          </cell>
+          <cell r="L11">
+            <v>196.96</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="K12">
+            <v>51.92</v>
+          </cell>
+          <cell r="L12">
+            <v>51.92</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="K13">
+            <v>290.62</v>
+          </cell>
+          <cell r="L13">
+            <v>290.62</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="K14">
+            <v>287.2</v>
+          </cell>
+          <cell r="L14">
+            <v>287.2</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="K15">
+            <v>133.26</v>
+          </cell>
+          <cell r="L15">
+            <v>133.26</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="K16">
+            <v>98.79</v>
+          </cell>
+          <cell r="L16">
+            <v>98.79</v>
           </cell>
         </row>
       </sheetData>
@@ -733,31 +1705,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:BA16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="10.5546875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" customWidth="1"/>
-    <col min="6" max="19" width="7.21875" customWidth="1"/>
-    <col min="20" max="53" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="3.33333333333333" customWidth="1"/>
+    <col min="2" max="2" width="3.775" customWidth="1"/>
+    <col min="3" max="3" width="3.55833333333333" customWidth="1"/>
+    <col min="4" max="4" width="10.1083333333333" customWidth="1"/>
+    <col min="5" max="5" width="8.21666666666667" customWidth="1"/>
+    <col min="6" max="53" width="7.21666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="1" customFormat="1" ht="73.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" s="1" customFormat="1" ht="73.95" customHeight="1" spans="1:53">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -914,174 +1888,2364 @@
       <c r="AZ1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BA1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:53" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" ht="15" spans="1:53">
+      <c r="A2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="7">
+        <f>[1]Sheet1!$D2</f>
+        <v>21865</v>
+      </c>
+      <c r="F2" s="7">
+        <v>2</v>
+      </c>
+      <c r="G2" s="7">
+        <f>F2*-0.2</f>
+        <v>-0.4</v>
+      </c>
+      <c r="H2" s="7">
+        <f>F2*0.8</f>
+        <v>1.6</v>
+      </c>
+      <c r="I2" s="7">
+        <f t="shared" ref="I2:I16" si="0">H2*-0.2</f>
+        <v>-0.32</v>
+      </c>
+      <c r="J2" s="7">
+        <f>F2*2</f>
+        <v>4</v>
+      </c>
+      <c r="K2" s="7">
+        <f t="shared" ref="K2:K16" si="1">J2*-0.2</f>
+        <v>-0.8</v>
+      </c>
+      <c r="L2" s="7">
+        <f>F2*1.3</f>
+        <v>2.6</v>
+      </c>
+      <c r="M2" s="7">
+        <f>L2*-0.2</f>
+        <v>-0.52</v>
+      </c>
+      <c r="N2" s="7">
+        <f>J2*0.2</f>
+        <v>0.8</v>
+      </c>
+      <c r="O2" s="7">
+        <f>J2*0.3</f>
+        <v>1.2</v>
+      </c>
+      <c r="P2" s="7">
+        <f>F2*1.5</f>
+        <v>3</v>
+      </c>
+      <c r="Q2" s="7">
+        <f t="shared" ref="Q2:Q16" si="2">P2*-0.2</f>
+        <v>-0.6</v>
+      </c>
+      <c r="R2" s="7">
+        <f t="shared" ref="R2:R6" si="3">H2*1.5</f>
+        <v>2.4</v>
+      </c>
+      <c r="S2" s="7">
+        <f t="shared" ref="S2:S16" si="4">R2*-0.2</f>
+        <v>-0.48</v>
+      </c>
+      <c r="T2" s="7">
+        <f t="shared" ref="T2:T6" si="5">J2*1.5</f>
+        <v>6</v>
+      </c>
+      <c r="U2" s="7">
+        <f t="shared" ref="U2:U16" si="6">T2*-0.2</f>
+        <v>-1.2</v>
+      </c>
+      <c r="V2" s="7">
+        <f>L2*1.1</f>
+        <v>2.86</v>
+      </c>
+      <c r="W2" s="7">
+        <f>V2*-0.2</f>
+        <v>-0.572</v>
+      </c>
+      <c r="X2" s="7">
+        <f>N2</f>
+        <v>0.8</v>
+      </c>
+      <c r="Y2" s="7">
+        <f>O2</f>
+        <v>1.2</v>
+      </c>
+      <c r="Z2" s="7">
+        <f>[2]Sheet2!K2</f>
+        <v>589.5</v>
+      </c>
+      <c r="AA2" s="7">
+        <f>[2]Sheet2!L2</f>
+        <v>595.395</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>103</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="AF2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="AG2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AP2" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="5"/>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="5"/>
+      <c r="AU2" s="5"/>
+      <c r="AV2" s="5"/>
+      <c r="AW2" s="5"/>
+      <c r="AX2" s="5"/>
+      <c r="AY2" s="5"/>
+      <c r="AZ2" s="5"/>
+      <c r="BA2" s="21"/>
+    </row>
+    <row r="3" spans="1:53">
+      <c r="A3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="5">
+      <c r="B3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="11">
+        <f>[1]Sheet1!$D3</f>
+        <v>21230</v>
+      </c>
+      <c r="F3" s="11">
+        <v>2</v>
+      </c>
+      <c r="G3" s="11">
+        <f t="shared" ref="G3:G16" si="7">F3*-0.2</f>
+        <v>-0.4</v>
+      </c>
+      <c r="H3" s="11">
+        <f t="shared" ref="H3:H16" si="8">F3*0.8</f>
+        <v>1.6</v>
+      </c>
+      <c r="I3" s="11">
+        <f t="shared" si="0"/>
+        <v>-0.32</v>
+      </c>
+      <c r="J3" s="11">
+        <f t="shared" ref="J3:J16" si="9">F3*2</f>
+        <v>4</v>
+      </c>
+      <c r="K3" s="11">
+        <f t="shared" si="1"/>
+        <v>-0.8</v>
+      </c>
+      <c r="L3" s="11">
+        <f>F3*1.3</f>
+        <v>2.6</v>
+      </c>
+      <c r="M3" s="11">
+        <f t="shared" ref="M3:M16" si="10">L3*-0.2</f>
+        <v>-0.52</v>
+      </c>
+      <c r="N3" s="11">
+        <f t="shared" ref="N3:N16" si="11">J3*0.2</f>
+        <v>0.8</v>
+      </c>
+      <c r="O3" s="11">
+        <f t="shared" ref="O3:O16" si="12">J3*0.3</f>
+        <v>1.2</v>
+      </c>
+      <c r="P3" s="11">
+        <f>F3*1.5</f>
+        <v>3</v>
+      </c>
+      <c r="Q3" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.6</v>
+      </c>
+      <c r="R3" s="11">
+        <f t="shared" si="3"/>
+        <v>2.4</v>
+      </c>
+      <c r="S3" s="11">
+        <f t="shared" si="4"/>
+        <v>-0.48</v>
+      </c>
+      <c r="T3" s="11">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="U3" s="11">
+        <f t="shared" si="6"/>
+        <v>-1.2</v>
+      </c>
+      <c r="V3" s="11">
+        <f t="shared" ref="V3:V16" si="13">L3*1.1</f>
+        <v>2.86</v>
+      </c>
+      <c r="W3" s="11">
+        <f t="shared" ref="W3:W16" si="14">V3*-0.2</f>
+        <v>-0.572</v>
+      </c>
+      <c r="X3" s="11">
+        <f t="shared" ref="X3:X16" si="15">N3</f>
+        <v>0.8</v>
+      </c>
+      <c r="Y3" s="11">
+        <f t="shared" ref="Y3:Y16" si="16">O3</f>
+        <v>1.2</v>
+      </c>
+      <c r="Z3" s="11">
+        <f>[2]Sheet2!K3</f>
+        <v>820.5</v>
+      </c>
+      <c r="AA3" s="11">
+        <f>[2]Sheet2!L3</f>
+        <v>828.705</v>
+      </c>
+      <c r="AB3" s="9">
+        <v>103</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="9"/>
+      <c r="AO3" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AP3" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AQ3" s="9"/>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="9"/>
+      <c r="AT3" s="9"/>
+      <c r="AU3" s="9"/>
+      <c r="AV3" s="9"/>
+      <c r="AW3" s="9"/>
+      <c r="AX3" s="9"/>
+      <c r="AY3" s="9"/>
+      <c r="AZ3" s="9"/>
+      <c r="BA3" s="22"/>
+    </row>
+    <row r="4" spans="1:53">
+      <c r="A4" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="15">
+        <f>[1]Sheet1!$D4</f>
+        <v>3944</v>
+      </c>
+      <c r="F4" s="15">
+        <v>2</v>
+      </c>
+      <c r="G4" s="15">
+        <f t="shared" si="7"/>
+        <v>-0.4</v>
+      </c>
+      <c r="H4" s="15">
+        <f t="shared" si="8"/>
+        <v>1.6</v>
+      </c>
+      <c r="I4" s="15">
+        <f t="shared" si="0"/>
+        <v>-0.32</v>
+      </c>
+      <c r="J4" s="15">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="K4" s="15">
+        <f t="shared" si="1"/>
+        <v>-0.8</v>
+      </c>
+      <c r="L4" s="15">
+        <f>F4*1.3</f>
+        <v>2.6</v>
+      </c>
+      <c r="M4" s="15">
+        <f t="shared" si="10"/>
+        <v>-0.52</v>
+      </c>
+      <c r="N4" s="15">
+        <f t="shared" si="11"/>
+        <v>0.8</v>
+      </c>
+      <c r="O4" s="15">
+        <f t="shared" si="12"/>
+        <v>1.2</v>
+      </c>
+      <c r="P4" s="15">
+        <f>F4*1.5</f>
+        <v>3</v>
+      </c>
+      <c r="Q4" s="15">
+        <f t="shared" si="2"/>
+        <v>-0.6</v>
+      </c>
+      <c r="R4" s="15">
+        <f t="shared" si="3"/>
+        <v>2.4</v>
+      </c>
+      <c r="S4" s="15">
+        <f t="shared" si="4"/>
+        <v>-0.48</v>
+      </c>
+      <c r="T4" s="15">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="U4" s="15">
+        <f t="shared" si="6"/>
+        <v>-1.2</v>
+      </c>
+      <c r="V4" s="15">
+        <f t="shared" si="13"/>
+        <v>2.86</v>
+      </c>
+      <c r="W4" s="15">
+        <f t="shared" si="14"/>
+        <v>-0.572</v>
+      </c>
+      <c r="X4" s="15">
+        <f t="shared" si="15"/>
+        <v>0.8</v>
+      </c>
+      <c r="Y4" s="15">
+        <f t="shared" si="16"/>
+        <v>1.2</v>
+      </c>
+      <c r="Z4" s="15">
+        <f>[2]Sheet2!K4</f>
+        <v>77.46</v>
+      </c>
+      <c r="AA4" s="15">
+        <f>[2]Sheet2!L4</f>
+        <v>78.2346</v>
+      </c>
+      <c r="AB4" s="13">
+        <v>103</v>
+      </c>
+      <c r="AC4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF4" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AP4" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="13"/>
+      <c r="AV4" s="13"/>
+      <c r="AW4" s="13"/>
+      <c r="AX4" s="13"/>
+      <c r="AY4" s="13"/>
+      <c r="AZ4" s="13"/>
+      <c r="BA4" s="23"/>
+    </row>
+    <row r="5" spans="1:53">
+      <c r="A5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="11">
+        <f>[1]Sheet1!$D5</f>
+        <v>36819</v>
+      </c>
+      <c r="F5" s="11">
+        <v>2</v>
+      </c>
+      <c r="G5" s="11">
+        <f t="shared" si="7"/>
+        <v>-0.4</v>
+      </c>
+      <c r="H5" s="11">
+        <f t="shared" si="8"/>
+        <v>1.6</v>
+      </c>
+      <c r="I5" s="11">
+        <f t="shared" si="0"/>
+        <v>-0.32</v>
+      </c>
+      <c r="J5" s="11">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="K5" s="11">
+        <f t="shared" si="1"/>
+        <v>-0.8</v>
+      </c>
+      <c r="L5" s="11">
+        <f>F5*1.3</f>
+        <v>2.6</v>
+      </c>
+      <c r="M5" s="11">
+        <f t="shared" si="10"/>
+        <v>-0.52</v>
+      </c>
+      <c r="N5" s="11">
+        <f t="shared" si="11"/>
+        <v>0.8</v>
+      </c>
+      <c r="O5" s="11">
+        <f t="shared" si="12"/>
+        <v>1.2</v>
+      </c>
+      <c r="P5" s="11">
+        <f t="shared" ref="P5:T5" si="17">F5*0.5</f>
+        <v>1</v>
+      </c>
+      <c r="Q5" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.2</v>
+      </c>
+      <c r="R5" s="11">
+        <f t="shared" si="17"/>
+        <v>0.8</v>
+      </c>
+      <c r="S5" s="11">
+        <f t="shared" si="4"/>
+        <v>-0.16</v>
+      </c>
+      <c r="T5" s="11">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="U5" s="11">
+        <f t="shared" si="6"/>
+        <v>-0.4</v>
+      </c>
+      <c r="V5" s="11">
+        <f t="shared" si="13"/>
+        <v>2.86</v>
+      </c>
+      <c r="W5" s="11">
+        <f t="shared" si="14"/>
+        <v>-0.572</v>
+      </c>
+      <c r="X5" s="11">
+        <f t="shared" si="15"/>
+        <v>0.8</v>
+      </c>
+      <c r="Y5" s="11">
+        <f t="shared" si="16"/>
+        <v>1.2</v>
+      </c>
+      <c r="Z5" s="11">
+        <f>[2]Sheet2!K5</f>
+        <v>2510.42</v>
+      </c>
+      <c r="AA5" s="11">
+        <f>[2]Sheet2!L5</f>
+        <v>2535.5242</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>103</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9">
+        <v>10</v>
+      </c>
+      <c r="AK5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="9">
+        <v>12</v>
+      </c>
+      <c r="AO5" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AP5" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="22"/>
+    </row>
+    <row r="6" spans="1:53">
+      <c r="A6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="15">
+        <f>[1]Sheet1!$D6</f>
+        <v>2823</v>
+      </c>
+      <c r="F6" s="15">
+        <v>2</v>
+      </c>
+      <c r="G6" s="15">
+        <f t="shared" si="7"/>
+        <v>-0.4</v>
+      </c>
+      <c r="H6" s="15">
+        <f t="shared" si="8"/>
+        <v>1.6</v>
+      </c>
+      <c r="I6" s="15">
+        <f t="shared" si="0"/>
+        <v>-0.32</v>
+      </c>
+      <c r="J6" s="15">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="K6" s="15">
+        <f t="shared" si="1"/>
+        <v>-0.8</v>
+      </c>
+      <c r="L6" s="15">
+        <f>F6*1.3</f>
+        <v>2.6</v>
+      </c>
+      <c r="M6" s="15">
+        <f t="shared" si="10"/>
+        <v>-0.52</v>
+      </c>
+      <c r="N6" s="15">
+        <f t="shared" si="11"/>
+        <v>0.8</v>
+      </c>
+      <c r="O6" s="15">
+        <f t="shared" si="12"/>
+        <v>1.2</v>
+      </c>
+      <c r="P6" s="15">
+        <f>F6*1.5</f>
+        <v>3</v>
+      </c>
+      <c r="Q6" s="15">
+        <f t="shared" si="2"/>
+        <v>-0.6</v>
+      </c>
+      <c r="R6" s="15">
+        <f t="shared" si="3"/>
+        <v>2.4</v>
+      </c>
+      <c r="S6" s="15">
+        <f t="shared" si="4"/>
+        <v>-0.48</v>
+      </c>
+      <c r="T6" s="15">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="U6" s="15">
+        <f t="shared" si="6"/>
+        <v>-1.2</v>
+      </c>
+      <c r="V6" s="15">
+        <f t="shared" si="13"/>
+        <v>2.86</v>
+      </c>
+      <c r="W6" s="15">
+        <f t="shared" si="14"/>
+        <v>-0.572</v>
+      </c>
+      <c r="X6" s="15">
+        <f t="shared" si="15"/>
+        <v>0.8</v>
+      </c>
+      <c r="Y6" s="15">
+        <f t="shared" si="16"/>
+        <v>1.2</v>
+      </c>
+      <c r="Z6" s="15">
+        <f>[2]Sheet2!K6</f>
+        <v>92.5</v>
+      </c>
+      <c r="AA6" s="15">
+        <f>[2]Sheet2!L6</f>
+        <v>93.425</v>
+      </c>
+      <c r="AB6" s="13">
+        <v>103</v>
+      </c>
+      <c r="AC6" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF6" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI6" s="13">
+        <v>20</v>
+      </c>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM6" s="13">
+        <v>10</v>
+      </c>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AP6" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="AQ6" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AX6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="AZ6" s="13"/>
+      <c r="BA6" s="23"/>
+    </row>
+    <row r="7" spans="1:53">
+      <c r="A7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="11">
+        <f>[1]Sheet1!$D7</f>
+        <v>40119</v>
+      </c>
+      <c r="F7" s="11">
+        <v>4</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" si="7"/>
+        <v>-0.8</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="8"/>
+        <v>3.2</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" si="0"/>
+        <v>-0.64</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="K7" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.6</v>
+      </c>
+      <c r="L7" s="11">
+        <f>F7*1</f>
+        <v>4</v>
+      </c>
+      <c r="M7" s="11">
+        <f t="shared" si="10"/>
+        <v>-0.8</v>
+      </c>
+      <c r="N7" s="11">
+        <f t="shared" si="11"/>
+        <v>1.6</v>
+      </c>
+      <c r="O7" s="11">
+        <f t="shared" si="12"/>
+        <v>2.4</v>
+      </c>
+      <c r="P7" s="11">
+        <f t="shared" ref="P7:T7" si="18">F7*1.05</f>
+        <v>4.2</v>
+      </c>
+      <c r="Q7" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.84</v>
+      </c>
+      <c r="R7" s="11">
+        <f t="shared" si="18"/>
+        <v>3.36</v>
+      </c>
+      <c r="S7" s="11">
+        <f t="shared" si="4"/>
+        <v>-0.672</v>
+      </c>
+      <c r="T7" s="11">
+        <f t="shared" si="18"/>
+        <v>8.4</v>
+      </c>
+      <c r="U7" s="11">
+        <f t="shared" si="6"/>
+        <v>-1.68</v>
+      </c>
+      <c r="V7" s="11">
+        <f t="shared" si="13"/>
+        <v>4.4</v>
+      </c>
+      <c r="W7" s="11">
+        <f t="shared" si="14"/>
+        <v>-0.88</v>
+      </c>
+      <c r="X7" s="11">
+        <f t="shared" si="15"/>
+        <v>1.6</v>
+      </c>
+      <c r="Y7" s="11">
+        <f t="shared" si="16"/>
+        <v>2.4</v>
+      </c>
+      <c r="Z7" s="11">
+        <f>[2]Sheet2!K7</f>
+        <v>2204</v>
+      </c>
+      <c r="AA7" s="11">
+        <f>[2]Sheet2!L7</f>
+        <v>2204</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>103</v>
+      </c>
+      <c r="AC7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI7" s="9">
+        <v>10</v>
+      </c>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM7" s="9">
+        <v>12</v>
+      </c>
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AP7" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="AQ7" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="9">
+        <v>100</v>
+      </c>
+      <c r="AT7" s="9">
+        <v>90</v>
+      </c>
+      <c r="AU7" s="9">
+        <v>50</v>
+      </c>
+      <c r="AV7" s="9">
+        <v>120</v>
+      </c>
+      <c r="AW7" s="9">
+        <v>80</v>
+      </c>
+      <c r="AX7" s="9">
+        <v>50</v>
+      </c>
+      <c r="AY7" s="9"/>
+      <c r="AZ7" s="9"/>
+      <c r="BA7" s="22"/>
+    </row>
+    <row r="8" spans="1:53">
+      <c r="A8" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="15">
         <f>[1]Sheet1!$D8</f>
         <v>16706</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F8" s="15">
         <v>1</v>
       </c>
-      <c r="G2" s="5">
-        <f t="shared" ref="G2" si="0">F2*-0.2</f>
+      <c r="G8" s="15">
+        <f t="shared" si="7"/>
         <v>-0.2</v>
       </c>
-      <c r="H2" s="5">
-        <f t="shared" ref="H2" si="1">F2*0.8</f>
+      <c r="H8" s="15">
+        <f t="shared" si="8"/>
         <v>0.8</v>
       </c>
-      <c r="I2" s="5">
-        <f t="shared" ref="I2" si="2">H2*-0.2</f>
-        <v>-0.16000000000000003</v>
-      </c>
-      <c r="J2" s="5">
-        <f t="shared" ref="J2" si="3">F2*2</f>
+      <c r="I8" s="15">
+        <f t="shared" si="0"/>
+        <v>-0.16</v>
+      </c>
+      <c r="J8" s="15">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="K2" s="5">
-        <f t="shared" ref="K2" si="4">J2*-0.2</f>
+      <c r="K8" s="15">
+        <f t="shared" si="1"/>
         <v>-0.4</v>
       </c>
-      <c r="L2" s="5">
-        <f>F2*1.1</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M2" s="5">
-        <f t="shared" ref="M2" si="5">L2*-0.2</f>
-        <v>-0.22000000000000003</v>
-      </c>
-      <c r="N2" s="5">
-        <f t="shared" ref="N2" si="6">J2*0.2</f>
+      <c r="L8" s="15">
+        <f>F8*1.1</f>
+        <v>1.1</v>
+      </c>
+      <c r="M8" s="15">
+        <f t="shared" si="10"/>
+        <v>-0.22</v>
+      </c>
+      <c r="N8" s="15">
+        <f t="shared" si="11"/>
         <v>0.4</v>
       </c>
-      <c r="O2" s="5">
-        <f t="shared" ref="O2" si="7">J2*0.3</f>
+      <c r="O8" s="15">
+        <f t="shared" si="12"/>
         <v>0.6</v>
       </c>
-      <c r="P2" s="5">
-        <f>F2*1.1</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Q2" s="5">
-        <f t="shared" ref="Q2" si="8">P2*-0.2</f>
-        <v>-0.22000000000000003</v>
-      </c>
-      <c r="R2" s="5">
-        <f t="shared" ref="R2" si="9">H2*1.1</f>
-        <v>0.88000000000000012</v>
-      </c>
-      <c r="S2" s="5">
-        <f t="shared" ref="S2" si="10">R2*-0.2</f>
-        <v>-0.17600000000000005</v>
-      </c>
-      <c r="T2" s="5">
-        <f t="shared" ref="T2" si="11">J2*1.1</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="U2" s="5">
-        <f t="shared" ref="U2" si="12">T2*-0.2</f>
-        <v>-0.44000000000000006</v>
-      </c>
-      <c r="V2" s="5">
-        <f t="shared" ref="V2" si="13">L2*1.1</f>
-        <v>1.2100000000000002</v>
-      </c>
-      <c r="W2" s="5">
-        <f t="shared" ref="W2" si="14">V2*-0.2</f>
-        <v>-0.24200000000000005</v>
-      </c>
-      <c r="X2" s="5">
-        <f t="shared" ref="X2" si="15">N2</f>
+      <c r="P8" s="15">
+        <f>F8*1.1</f>
+        <v>1.1</v>
+      </c>
+      <c r="Q8" s="15">
+        <f t="shared" si="2"/>
+        <v>-0.22</v>
+      </c>
+      <c r="R8" s="15">
+        <f t="shared" ref="R8:R12" si="19">H8*1.1</f>
+        <v>0.88</v>
+      </c>
+      <c r="S8" s="15">
+        <f t="shared" si="4"/>
+        <v>-0.176</v>
+      </c>
+      <c r="T8" s="15">
+        <f t="shared" ref="T8:T12" si="20">J8*1.1</f>
+        <v>2.2</v>
+      </c>
+      <c r="U8" s="15">
+        <f t="shared" si="6"/>
+        <v>-0.44</v>
+      </c>
+      <c r="V8" s="15">
+        <f t="shared" si="13"/>
+        <v>1.21</v>
+      </c>
+      <c r="W8" s="15">
+        <f t="shared" si="14"/>
+        <v>-0.242</v>
+      </c>
+      <c r="X8" s="15">
+        <f t="shared" si="15"/>
         <v>0.4</v>
       </c>
-      <c r="Y2" s="5">
-        <f t="shared" ref="Y2" si="16">O2</f>
+      <c r="Y8" s="15">
+        <f t="shared" si="16"/>
         <v>0.6</v>
       </c>
-      <c r="Z2" s="5">
+      <c r="Z8" s="15">
         <f>[2]Sheet2!K8</f>
         <v>581.5</v>
       </c>
-      <c r="AA2" s="5">
+      <c r="AA8" s="15">
         <f>[2]Sheet2!L8</f>
-        <v>598.94500000000005</v>
-      </c>
-      <c r="AB2" s="4">
+        <v>581.5</v>
+      </c>
+      <c r="AB8" s="13">
         <v>103</v>
       </c>
-      <c r="AC2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AC8" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AD8" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AE8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF8" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG8" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH8" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL8" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AP8" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="13"/>
+      <c r="AV8" s="13"/>
+      <c r="AW8" s="13"/>
+      <c r="AX8" s="13"/>
+      <c r="AY8" s="13">
+        <v>80</v>
+      </c>
+      <c r="AZ8" s="13">
+        <v>85</v>
+      </c>
+      <c r="BA8" s="23"/>
+    </row>
+    <row r="9" spans="1:53">
+      <c r="A9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="11">
+        <f>[1]Sheet1!$D9</f>
+        <v>1741</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="7"/>
+        <v>-0.2</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="I9" s="11">
+        <f t="shared" si="0"/>
+        <v>-0.16</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="K9" s="11">
+        <f t="shared" si="1"/>
+        <v>-0.4</v>
+      </c>
+      <c r="L9" s="11">
+        <f t="shared" ref="L9:L12" si="21">F9*1.1</f>
+        <v>1.1</v>
+      </c>
+      <c r="M9" s="11">
+        <f t="shared" si="10"/>
+        <v>-0.22</v>
+      </c>
+      <c r="N9" s="11">
+        <f t="shared" si="11"/>
+        <v>0.4</v>
+      </c>
+      <c r="O9" s="11">
+        <f t="shared" si="12"/>
+        <v>0.6</v>
+      </c>
+      <c r="P9" s="11">
+        <f>F9*1.1</f>
+        <v>1.1</v>
+      </c>
+      <c r="Q9" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.22</v>
+      </c>
+      <c r="R9" s="11">
+        <f t="shared" si="19"/>
+        <v>0.88</v>
+      </c>
+      <c r="S9" s="11">
+        <f t="shared" si="4"/>
+        <v>-0.176</v>
+      </c>
+      <c r="T9" s="11">
+        <f t="shared" si="20"/>
+        <v>2.2</v>
+      </c>
+      <c r="U9" s="11">
+        <f t="shared" si="6"/>
+        <v>-0.44</v>
+      </c>
+      <c r="V9" s="11">
+        <f t="shared" si="13"/>
+        <v>1.21</v>
+      </c>
+      <c r="W9" s="11">
+        <f t="shared" si="14"/>
+        <v>-0.242</v>
+      </c>
+      <c r="X9" s="11">
+        <f t="shared" si="15"/>
+        <v>0.4</v>
+      </c>
+      <c r="Y9" s="11">
+        <f t="shared" si="16"/>
+        <v>0.6</v>
+      </c>
+      <c r="Z9" s="11">
+        <f>[2]Sheet2!K9</f>
+        <v>289.54</v>
+      </c>
+      <c r="AA9" s="11">
+        <f>[2]Sheet2!L9</f>
+        <v>289.54</v>
+      </c>
+      <c r="AB9" s="9">
+        <v>103</v>
+      </c>
+      <c r="AC9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD9" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4" t="s">
+      <c r="AE9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9">
+        <v>10</v>
+      </c>
+      <c r="AK9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9">
+        <v>9</v>
+      </c>
+      <c r="AO9" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AP9" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="AS9" s="9"/>
+      <c r="AT9" s="9"/>
+      <c r="AU9" s="9"/>
+      <c r="AV9" s="9"/>
+      <c r="AW9" s="9"/>
+      <c r="AX9" s="9"/>
+      <c r="AY9" s="9">
+        <v>60</v>
+      </c>
+      <c r="AZ9" s="9">
+        <v>50</v>
+      </c>
+      <c r="BA9" s="22"/>
+    </row>
+    <row r="10" spans="1:53">
+      <c r="A10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="15">
+        <f>[1]Sheet1!$D10</f>
+        <v>2007</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+      <c r="G10" s="13">
+        <f t="shared" si="7"/>
+        <v>-0.2</v>
+      </c>
+      <c r="H10" s="13">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="I10" s="13">
+        <f t="shared" si="0"/>
+        <v>-0.16</v>
+      </c>
+      <c r="J10" s="13">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="K10" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.4</v>
+      </c>
+      <c r="L10" s="13">
+        <f t="shared" si="21"/>
+        <v>1.1</v>
+      </c>
+      <c r="M10" s="13">
+        <f t="shared" si="10"/>
+        <v>-0.22</v>
+      </c>
+      <c r="N10" s="13">
+        <f t="shared" si="11"/>
+        <v>0.4</v>
+      </c>
+      <c r="O10" s="13">
+        <f t="shared" si="12"/>
+        <v>0.6</v>
+      </c>
+      <c r="P10" s="13">
+        <f>F10*1.1</f>
+        <v>1.1</v>
+      </c>
+      <c r="Q10" s="13">
+        <f t="shared" si="2"/>
+        <v>-0.22</v>
+      </c>
+      <c r="R10" s="13">
+        <f t="shared" si="19"/>
+        <v>0.88</v>
+      </c>
+      <c r="S10" s="13">
+        <f t="shared" si="4"/>
+        <v>-0.176</v>
+      </c>
+      <c r="T10" s="13">
+        <f t="shared" si="20"/>
+        <v>2.2</v>
+      </c>
+      <c r="U10" s="13">
+        <f t="shared" si="6"/>
+        <v>-0.44</v>
+      </c>
+      <c r="V10" s="13">
+        <f t="shared" si="13"/>
+        <v>1.21</v>
+      </c>
+      <c r="W10" s="13">
+        <f t="shared" si="14"/>
+        <v>-0.242</v>
+      </c>
+      <c r="X10" s="13">
+        <f t="shared" si="15"/>
+        <v>0.4</v>
+      </c>
+      <c r="Y10" s="13">
+        <f t="shared" si="16"/>
+        <v>0.6</v>
+      </c>
+      <c r="Z10" s="15">
+        <f>[2]Sheet2!K10</f>
+        <v>51.67</v>
+      </c>
+      <c r="AA10" s="15">
+        <f>[2]Sheet2!L10</f>
+        <v>51.67</v>
+      </c>
+      <c r="AB10" s="13">
+        <v>103</v>
+      </c>
+      <c r="AC10" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD10" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AE10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AP10" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="13"/>
+      <c r="AU10" s="13"/>
+      <c r="AV10" s="13"/>
+      <c r="AW10" s="13"/>
+      <c r="AX10" s="13"/>
+      <c r="AY10" s="13">
+        <v>80</v>
+      </c>
+      <c r="AZ10" s="13">
+        <v>85</v>
+      </c>
+      <c r="BA10" s="23"/>
+    </row>
+    <row r="11" spans="1:53">
+      <c r="A11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="11">
+        <f>[1]Sheet1!$D11</f>
+        <v>6639</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.2</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="I11" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.16</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="K11" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.4</v>
+      </c>
+      <c r="L11" s="9">
+        <f t="shared" si="21"/>
+        <v>1.1</v>
+      </c>
+      <c r="M11" s="9">
+        <f t="shared" si="10"/>
+        <v>-0.22</v>
+      </c>
+      <c r="N11" s="9">
+        <f t="shared" si="11"/>
+        <v>0.4</v>
+      </c>
+      <c r="O11" s="9">
+        <f t="shared" si="12"/>
+        <v>0.6</v>
+      </c>
+      <c r="P11" s="9">
+        <f>F11*1.1</f>
+        <v>1.1</v>
+      </c>
+      <c r="Q11" s="9">
+        <f t="shared" si="2"/>
+        <v>-0.22</v>
+      </c>
+      <c r="R11" s="9">
+        <f t="shared" si="19"/>
+        <v>0.88</v>
+      </c>
+      <c r="S11" s="9">
+        <f t="shared" si="4"/>
+        <v>-0.176</v>
+      </c>
+      <c r="T11" s="9">
+        <f t="shared" si="20"/>
+        <v>2.2</v>
+      </c>
+      <c r="U11" s="9">
+        <f t="shared" si="6"/>
+        <v>-0.44</v>
+      </c>
+      <c r="V11" s="9">
+        <f t="shared" si="13"/>
+        <v>1.21</v>
+      </c>
+      <c r="W11" s="9">
+        <f t="shared" si="14"/>
+        <v>-0.242</v>
+      </c>
+      <c r="X11" s="9">
+        <f t="shared" si="15"/>
+        <v>0.4</v>
+      </c>
+      <c r="Y11" s="9">
+        <f t="shared" si="16"/>
+        <v>0.6</v>
+      </c>
+      <c r="Z11" s="11">
+        <f>[2]Sheet2!K11</f>
+        <v>196.96</v>
+      </c>
+      <c r="AA11" s="11">
+        <f>[2]Sheet2!L11</f>
+        <v>196.96</v>
+      </c>
+      <c r="AB11" s="9">
+        <v>103</v>
+      </c>
+      <c r="AC11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD11" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4">
+      <c r="AE11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI11" s="9"/>
+      <c r="AJ11" s="9"/>
+      <c r="AK11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM11" s="9"/>
+      <c r="AN11" s="9"/>
+      <c r="AO11" s="9">
         <v>0.5</v>
       </c>
-      <c r="AP2" s="4">
+      <c r="AP11" s="9">
         <v>0.5</v>
       </c>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4"/>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4"/>
-      <c r="AX2" s="4"/>
-      <c r="AY2" s="4">
+      <c r="AQ11" s="9"/>
+      <c r="AR11" s="9"/>
+      <c r="AS11" s="9"/>
+      <c r="AT11" s="9"/>
+      <c r="AU11" s="9"/>
+      <c r="AV11" s="9"/>
+      <c r="AW11" s="9"/>
+      <c r="AX11" s="9"/>
+      <c r="AY11" s="9">
+        <v>60</v>
+      </c>
+      <c r="AZ11" s="9">
+        <v>50</v>
+      </c>
+      <c r="BA11" s="22"/>
+    </row>
+    <row r="12" spans="1:53">
+      <c r="A12" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="15">
+        <f>[1]Sheet1!$D12</f>
+        <v>1728</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1</v>
+      </c>
+      <c r="G12" s="13">
+        <f t="shared" si="7"/>
+        <v>-0.2</v>
+      </c>
+      <c r="H12" s="13">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="I12" s="13">
+        <f t="shared" si="0"/>
+        <v>-0.16</v>
+      </c>
+      <c r="J12" s="13">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="K12" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.4</v>
+      </c>
+      <c r="L12" s="13">
+        <f t="shared" si="21"/>
+        <v>1.1</v>
+      </c>
+      <c r="M12" s="13">
+        <f t="shared" si="10"/>
+        <v>-0.22</v>
+      </c>
+      <c r="N12" s="13">
+        <f t="shared" si="11"/>
+        <v>0.4</v>
+      </c>
+      <c r="O12" s="13">
+        <f t="shared" si="12"/>
+        <v>0.6</v>
+      </c>
+      <c r="P12" s="13">
+        <f>F12*1.1</f>
+        <v>1.1</v>
+      </c>
+      <c r="Q12" s="13">
+        <f t="shared" si="2"/>
+        <v>-0.22</v>
+      </c>
+      <c r="R12" s="13">
+        <f t="shared" si="19"/>
+        <v>0.88</v>
+      </c>
+      <c r="S12" s="13">
+        <f t="shared" si="4"/>
+        <v>-0.176</v>
+      </c>
+      <c r="T12" s="13">
+        <f t="shared" si="20"/>
+        <v>2.2</v>
+      </c>
+      <c r="U12" s="13">
+        <f t="shared" si="6"/>
+        <v>-0.44</v>
+      </c>
+      <c r="V12" s="13">
+        <f t="shared" si="13"/>
+        <v>1.21</v>
+      </c>
+      <c r="W12" s="13">
+        <f t="shared" si="14"/>
+        <v>-0.242</v>
+      </c>
+      <c r="X12" s="13">
+        <f t="shared" si="15"/>
+        <v>0.4</v>
+      </c>
+      <c r="Y12" s="13">
+        <f t="shared" si="16"/>
+        <v>0.6</v>
+      </c>
+      <c r="Z12" s="15">
+        <f>[2]Sheet2!K12</f>
+        <v>51.92</v>
+      </c>
+      <c r="AA12" s="15">
+        <f>[2]Sheet2!L12</f>
+        <v>51.92</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>103</v>
+      </c>
+      <c r="AC12" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF12" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG12" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH12" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL12" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AP12" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="13"/>
+      <c r="AU12" s="13"/>
+      <c r="AV12" s="13"/>
+      <c r="AW12" s="13"/>
+      <c r="AX12" s="13"/>
+      <c r="AY12" s="13">
+        <v>60</v>
+      </c>
+      <c r="AZ12" s="13">
         <v>80</v>
       </c>
-      <c r="AZ2" s="4">
+      <c r="BA12" s="23"/>
+    </row>
+    <row r="13" spans="1:53">
+      <c r="A13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="BA2" s="7"/>
+      <c r="D13" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="11">
+        <f>[1]Sheet1!$D13</f>
+        <v>13086.2250520833</v>
+      </c>
+      <c r="F13" s="9">
+        <v>3</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.6</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="8"/>
+        <v>2.4</v>
+      </c>
+      <c r="I13" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.48</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="K13" s="9">
+        <f t="shared" si="1"/>
+        <v>-1.2</v>
+      </c>
+      <c r="L13" s="9">
+        <f>F13*1.15</f>
+        <v>3.45</v>
+      </c>
+      <c r="M13" s="9">
+        <f t="shared" si="10"/>
+        <v>-0.69</v>
+      </c>
+      <c r="N13" s="9">
+        <f t="shared" si="11"/>
+        <v>1.2</v>
+      </c>
+      <c r="O13" s="9">
+        <f t="shared" si="12"/>
+        <v>1.8</v>
+      </c>
+      <c r="P13" s="9">
+        <f>F13*1.15</f>
+        <v>3.45</v>
+      </c>
+      <c r="Q13" s="9">
+        <f t="shared" si="2"/>
+        <v>-0.69</v>
+      </c>
+      <c r="R13" s="9">
+        <f t="shared" ref="R13:R16" si="22">H13*1.15</f>
+        <v>2.76</v>
+      </c>
+      <c r="S13" s="9">
+        <f t="shared" si="4"/>
+        <v>-0.552</v>
+      </c>
+      <c r="T13" s="9">
+        <f t="shared" ref="T13:T16" si="23">J13*1.15</f>
+        <v>6.9</v>
+      </c>
+      <c r="U13" s="9">
+        <f t="shared" si="6"/>
+        <v>-1.38</v>
+      </c>
+      <c r="V13" s="9">
+        <f t="shared" si="13"/>
+        <v>3.795</v>
+      </c>
+      <c r="W13" s="9">
+        <f t="shared" si="14"/>
+        <v>-0.759</v>
+      </c>
+      <c r="X13" s="9">
+        <f t="shared" si="15"/>
+        <v>1.2</v>
+      </c>
+      <c r="Y13" s="9">
+        <f t="shared" si="16"/>
+        <v>1.8</v>
+      </c>
+      <c r="Z13" s="11">
+        <f>[2]Sheet2!K13</f>
+        <v>290.62</v>
+      </c>
+      <c r="AA13" s="11">
+        <f>[2]Sheet2!L13</f>
+        <v>290.62</v>
+      </c>
+      <c r="AB13" s="9">
+        <v>103</v>
+      </c>
+      <c r="AC13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM13" s="9"/>
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AP13" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AQ13" s="9"/>
+      <c r="AR13" s="9"/>
+      <c r="AS13" s="9"/>
+      <c r="AT13" s="9"/>
+      <c r="AU13" s="9"/>
+      <c r="AV13" s="9"/>
+      <c r="AW13" s="9"/>
+      <c r="AX13" s="9"/>
+      <c r="AY13" s="9"/>
+      <c r="AZ13" s="9"/>
+      <c r="BA13" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53">
+      <c r="A14" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="15">
+        <f>[1]Sheet1!$D14</f>
+        <v>11680.229375</v>
+      </c>
+      <c r="F14" s="13">
+        <v>3</v>
+      </c>
+      <c r="G14" s="13">
+        <f t="shared" si="7"/>
+        <v>-0.6</v>
+      </c>
+      <c r="H14" s="13">
+        <f t="shared" si="8"/>
+        <v>2.4</v>
+      </c>
+      <c r="I14" s="13">
+        <f t="shared" si="0"/>
+        <v>-0.48</v>
+      </c>
+      <c r="J14" s="13">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="K14" s="13">
+        <f t="shared" si="1"/>
+        <v>-1.2</v>
+      </c>
+      <c r="L14" s="13">
+        <f>F14*1.15</f>
+        <v>3.45</v>
+      </c>
+      <c r="M14" s="13">
+        <f t="shared" si="10"/>
+        <v>-0.69</v>
+      </c>
+      <c r="N14" s="13">
+        <f t="shared" si="11"/>
+        <v>1.2</v>
+      </c>
+      <c r="O14" s="13">
+        <f t="shared" si="12"/>
+        <v>1.8</v>
+      </c>
+      <c r="P14" s="13">
+        <f>F14*1.15</f>
+        <v>3.45</v>
+      </c>
+      <c r="Q14" s="13">
+        <f t="shared" si="2"/>
+        <v>-0.69</v>
+      </c>
+      <c r="R14" s="13">
+        <f t="shared" si="22"/>
+        <v>2.76</v>
+      </c>
+      <c r="S14" s="13">
+        <f t="shared" si="4"/>
+        <v>-0.552</v>
+      </c>
+      <c r="T14" s="13">
+        <f t="shared" si="23"/>
+        <v>6.9</v>
+      </c>
+      <c r="U14" s="13">
+        <f t="shared" si="6"/>
+        <v>-1.38</v>
+      </c>
+      <c r="V14" s="13">
+        <f t="shared" si="13"/>
+        <v>3.795</v>
+      </c>
+      <c r="W14" s="13">
+        <f t="shared" si="14"/>
+        <v>-0.759</v>
+      </c>
+      <c r="X14" s="13">
+        <f t="shared" si="15"/>
+        <v>1.2</v>
+      </c>
+      <c r="Y14" s="13">
+        <f t="shared" si="16"/>
+        <v>1.8</v>
+      </c>
+      <c r="Z14" s="15">
+        <f>[2]Sheet2!K14</f>
+        <v>287.2</v>
+      </c>
+      <c r="AA14" s="15">
+        <f>[2]Sheet2!L14</f>
+        <v>287.2</v>
+      </c>
+      <c r="AB14" s="13">
+        <v>103</v>
+      </c>
+      <c r="AC14" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="13"/>
+      <c r="AO14" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AP14" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="13"/>
+      <c r="AS14" s="13"/>
+      <c r="AT14" s="13"/>
+      <c r="AU14" s="13"/>
+      <c r="AV14" s="13"/>
+      <c r="AW14" s="13"/>
+      <c r="AX14" s="13"/>
+      <c r="AY14" s="13"/>
+      <c r="AZ14" s="13"/>
+      <c r="BA14" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53">
+      <c r="A15" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="11">
+        <f>[1]Sheet1!$D15</f>
+        <v>4719.54557291667</v>
+      </c>
+      <c r="F15" s="9">
+        <v>3</v>
+      </c>
+      <c r="G15" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.6</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" si="8"/>
+        <v>2.4</v>
+      </c>
+      <c r="I15" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.48</v>
+      </c>
+      <c r="J15" s="9">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="K15" s="9">
+        <f t="shared" si="1"/>
+        <v>-1.2</v>
+      </c>
+      <c r="L15" s="9">
+        <f>F15*1.15</f>
+        <v>3.45</v>
+      </c>
+      <c r="M15" s="9">
+        <f t="shared" si="10"/>
+        <v>-0.69</v>
+      </c>
+      <c r="N15" s="9">
+        <f t="shared" si="11"/>
+        <v>1.2</v>
+      </c>
+      <c r="O15" s="9">
+        <f t="shared" si="12"/>
+        <v>1.8</v>
+      </c>
+      <c r="P15" s="9">
+        <f>F15*1.15</f>
+        <v>3.45</v>
+      </c>
+      <c r="Q15" s="9">
+        <f t="shared" si="2"/>
+        <v>-0.69</v>
+      </c>
+      <c r="R15" s="9">
+        <f t="shared" si="22"/>
+        <v>2.76</v>
+      </c>
+      <c r="S15" s="9">
+        <f t="shared" si="4"/>
+        <v>-0.552</v>
+      </c>
+      <c r="T15" s="9">
+        <f t="shared" si="23"/>
+        <v>6.9</v>
+      </c>
+      <c r="U15" s="9">
+        <f t="shared" si="6"/>
+        <v>-1.38</v>
+      </c>
+      <c r="V15" s="9">
+        <f t="shared" si="13"/>
+        <v>3.795</v>
+      </c>
+      <c r="W15" s="9">
+        <f t="shared" si="14"/>
+        <v>-0.759</v>
+      </c>
+      <c r="X15" s="9">
+        <f t="shared" si="15"/>
+        <v>1.2</v>
+      </c>
+      <c r="Y15" s="9">
+        <f t="shared" si="16"/>
+        <v>1.8</v>
+      </c>
+      <c r="Z15" s="11">
+        <f>[2]Sheet2!K15</f>
+        <v>133.26</v>
+      </c>
+      <c r="AA15" s="11">
+        <f>[2]Sheet2!L15</f>
+        <v>133.26</v>
+      </c>
+      <c r="AB15" s="9">
+        <v>103</v>
+      </c>
+      <c r="AC15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AP15" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AQ15" s="9"/>
+      <c r="AR15" s="9"/>
+      <c r="AS15" s="9"/>
+      <c r="AT15" s="9"/>
+      <c r="AU15" s="9"/>
+      <c r="AV15" s="9"/>
+      <c r="AW15" s="9"/>
+      <c r="AX15" s="9"/>
+      <c r="AY15" s="9"/>
+      <c r="AZ15" s="9"/>
+      <c r="BA15" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53">
+      <c r="A16" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="19">
+        <f>[1]Sheet1!$D16</f>
+        <v>3069</v>
+      </c>
+      <c r="F16" s="17">
+        <v>3</v>
+      </c>
+      <c r="G16" s="17">
+        <f t="shared" si="7"/>
+        <v>-0.6</v>
+      </c>
+      <c r="H16" s="17">
+        <f t="shared" si="8"/>
+        <v>2.4</v>
+      </c>
+      <c r="I16" s="17">
+        <f t="shared" si="0"/>
+        <v>-0.48</v>
+      </c>
+      <c r="J16" s="17">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="K16" s="17">
+        <f t="shared" si="1"/>
+        <v>-1.2</v>
+      </c>
+      <c r="L16" s="17">
+        <f>F16*1.15</f>
+        <v>3.45</v>
+      </c>
+      <c r="M16" s="17">
+        <f t="shared" si="10"/>
+        <v>-0.69</v>
+      </c>
+      <c r="N16" s="17">
+        <f t="shared" si="11"/>
+        <v>1.2</v>
+      </c>
+      <c r="O16" s="17">
+        <f t="shared" si="12"/>
+        <v>1.8</v>
+      </c>
+      <c r="P16" s="17">
+        <f>F16*1.15</f>
+        <v>3.45</v>
+      </c>
+      <c r="Q16" s="17">
+        <f t="shared" si="2"/>
+        <v>-0.69</v>
+      </c>
+      <c r="R16" s="17">
+        <f t="shared" si="22"/>
+        <v>2.76</v>
+      </c>
+      <c r="S16" s="17">
+        <f t="shared" si="4"/>
+        <v>-0.552</v>
+      </c>
+      <c r="T16" s="17">
+        <f t="shared" si="23"/>
+        <v>6.9</v>
+      </c>
+      <c r="U16" s="17">
+        <f t="shared" si="6"/>
+        <v>-1.38</v>
+      </c>
+      <c r="V16" s="17">
+        <f t="shared" si="13"/>
+        <v>3.795</v>
+      </c>
+      <c r="W16" s="17">
+        <f t="shared" si="14"/>
+        <v>-0.759</v>
+      </c>
+      <c r="X16" s="17">
+        <f t="shared" si="15"/>
+        <v>1.2</v>
+      </c>
+      <c r="Y16" s="17">
+        <f t="shared" si="16"/>
+        <v>1.8</v>
+      </c>
+      <c r="Z16" s="19">
+        <f>[2]Sheet2!K16</f>
+        <v>98.79</v>
+      </c>
+      <c r="AA16" s="19">
+        <f>[2]Sheet2!L16</f>
+        <v>98.79</v>
+      </c>
+      <c r="AB16" s="17">
+        <v>103</v>
+      </c>
+      <c r="AC16" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD16" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE16" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF16" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG16" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH16" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="17"/>
+      <c r="AK16" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL16" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM16" s="17"/>
+      <c r="AN16" s="17"/>
+      <c r="AO16" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="AP16" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="AQ16" s="17"/>
+      <c r="AR16" s="17"/>
+      <c r="AS16" s="17"/>
+      <c r="AT16" s="17"/>
+      <c r="AU16" s="17"/>
+      <c r="AV16" s="17"/>
+      <c r="AW16" s="17"/>
+      <c r="AX16" s="17"/>
+      <c r="AY16" s="17"/>
+      <c r="AZ16" s="17"/>
+      <c r="BA16" s="24" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA13 BA8:BA12 BA14:BA16">
       <formula1>"total_profit,patmi,revenue"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>